--- a/data/all_years_ДВС_Датчикискоростиветра.xlsx
+++ b/data/all_years_ДВС_Датчикискоростиветра.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,22 +518,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ДВС-01</t>
+          <t>Нет модификации</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0046220162</t>
+          <t>0046230056</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-08-13T00:00:00Z</t>
+          <t>2024-11-16T00:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>С-ТТ/14-08-2023/269923011</t>
+          <t>С-В/17-11-2023/295542080</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>ФБУ "РОСТЕСТ-МОСКВА"</t>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
         </is>
       </c>
       <c r="K2" t="b">
@@ -564,16 +564,16 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1-269923011</t>
+          <t>1-295542080</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-08-14T00:00:00Z</t>
+          <t>2023-11-17T00:00:00Z</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.774962224046014e+18</v>
+        <v>1.783090854668272e+18</v>
       </c>
       <c r="O2" t="inlineStr"/>
     </row>
@@ -585,22 +585,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ДВС-01</t>
+          <t>Нет модификации</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0046220163</t>
+          <t>0046230074</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-08-13T00:00:00Z</t>
+          <t>2024-11-16T00:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>С-ТТ/14-08-2023/269923012</t>
+          <t>С-В/17-11-2023/295542082</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>ФБУ "РОСТЕСТ-МОСКВА"</t>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
         </is>
       </c>
       <c r="K3" t="b">
@@ -631,16 +631,16 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1-269923012</t>
+          <t>1-295542082</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2023-08-14T00:00:00Z</t>
+          <t>2023-11-17T00:00:00Z</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.774962224046014e+18</v>
+        <v>1.783090854671417e+18</v>
       </c>
       <c r="O3" t="inlineStr"/>
     </row>
@@ -652,22 +652,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ДВС-01</t>
+          <t>Нет модификации</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0046220166</t>
+          <t>0046230075</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-08-13T00:00:00Z</t>
+          <t>2024-11-16T00:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>С-ТТ/14-08-2023/269923015</t>
+          <t>С-В/17-11-2023/295542081</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>ФБУ "РОСТЕСТ-МОСКВА"</t>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
         </is>
       </c>
       <c r="K4" t="b">
@@ -698,16 +698,16 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1-269923015</t>
+          <t>1-295542081</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023-08-14T00:00:00Z</t>
+          <t>2023-11-17T00:00:00Z</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.774962224047063e+18</v>
+        <v>1.783090854674563e+18</v>
       </c>
       <c r="O4" t="inlineStr"/>
     </row>
@@ -719,22 +719,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ДВС-01</t>
+          <t>Нет модификации</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0046220171</t>
+          <t>0046230072</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-08-13T00:00:00Z</t>
+          <t>2024-11-16T00:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>С-ТТ/14-08-2023/269923016</t>
+          <t>С-В/17-11-2023/295542084</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>ФБУ "РОСТЕСТ-МОСКВА"</t>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
         </is>
       </c>
       <c r="K5" t="b">
@@ -765,16 +765,16 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1-269923016</t>
+          <t>1-295542084</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023-08-14T00:00:00Z</t>
+          <t>2023-11-17T00:00:00Z</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.774962224047063e+18</v>
+        <v>1.783090854678757e+18</v>
       </c>
       <c r="O5" t="inlineStr"/>
     </row>
@@ -786,22 +786,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ДВС-01</t>
+          <t>Нет модификации</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0046220164</t>
+          <t>0046230073</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-08-13T00:00:00Z</t>
+          <t>2024-11-16T00:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>С-ТТ/14-08-2023/269923017</t>
+          <t>С-В/17-11-2023/295542083</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>ФБУ "РОСТЕСТ-МОСКВА"</t>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
         </is>
       </c>
       <c r="K6" t="b">
@@ -832,16 +832,16 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1-269923017</t>
+          <t>1-295542083</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2023-08-14T00:00:00Z</t>
+          <t>2023-11-17T00:00:00Z</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.774962224047063e+18</v>
+        <v>1.783090854681903e+18</v>
       </c>
       <c r="O6" t="inlineStr"/>
     </row>
@@ -853,22 +853,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ДВС-01</t>
+          <t>Нет модификации</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0046220170</t>
+          <t>0046230070</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-08-13T00:00:00Z</t>
+          <t>2024-11-16T00:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>С-ТТ/14-08-2023/269923018</t>
+          <t>С-В/17-11-2023/295542086</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>ФБУ "РОСТЕСТ-МОСКВА"</t>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
         </is>
       </c>
       <c r="K7" t="b">
@@ -899,16 +899,16 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1-269923018</t>
+          <t>1-295542086</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2023-08-14T00:00:00Z</t>
+          <t>2023-11-17T00:00:00Z</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.774962224047063e+18</v>
+        <v>1.783090854685049e+18</v>
       </c>
       <c r="O7" t="inlineStr"/>
     </row>
@@ -920,22 +920,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ДВС-01</t>
+          <t>Нет модификации</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0046220169</t>
+          <t>0046230071</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-08-13T00:00:00Z</t>
+          <t>2024-11-16T00:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>С-ТТ/14-08-2023/269923019</t>
+          <t>С-В/17-11-2023/295542085</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -958,7 +958,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>ФБУ "РОСТЕСТ-МОСКВА"</t>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
         </is>
       </c>
       <c r="K8" t="b">
@@ -966,16 +966,16 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1-269923019</t>
+          <t>1-295542085</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023-08-14T00:00:00Z</t>
+          <t>2023-11-17T00:00:00Z</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.774962224047063e+18</v>
+        <v>1.783090854689243e+18</v>
       </c>
       <c r="O8" t="inlineStr"/>
     </row>
@@ -987,22 +987,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ДВС-01</t>
+          <t>Нет модификации</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0046220165</t>
+          <t>0046230068</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-08-13T00:00:00Z</t>
+          <t>2024-11-16T00:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>С-ТТ/14-08-2023/269923020</t>
+          <t>С-В/17-11-2023/295542088</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>ФБУ "РОСТЕСТ-МОСКВА"</t>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
         </is>
       </c>
       <c r="K9" t="b">
@@ -1033,16 +1033,16 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1-269923020</t>
+          <t>1-295542088</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2023-08-14T00:00:00Z</t>
+          <t>2023-11-17T00:00:00Z</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1.774962224048112e+18</v>
+        <v>1.783090854692389e+18</v>
       </c>
       <c r="O9" t="inlineStr"/>
     </row>
@@ -1054,22 +1054,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ДВС-01</t>
+          <t>Нет модификации</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0046220172</t>
+          <t>0046230069</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-08-13T00:00:00Z</t>
+          <t>2024-11-16T00:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>С-ТТ/14-08-2023/269923021</t>
+          <t>С-В/17-11-2023/295542087</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>ФБУ "РОСТЕСТ-МОСКВА"</t>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
         </is>
       </c>
       <c r="K10" t="b">
@@ -1100,16 +1100,16 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1-269923021</t>
+          <t>1-295542087</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-08-14T00:00:00Z</t>
+          <t>2023-11-17T00:00:00Z</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.774962224048112e+18</v>
+        <v>1.783090854695535e+18</v>
       </c>
       <c r="O10" t="inlineStr"/>
     </row>
@@ -1121,22 +1121,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ДВС-01</t>
+          <t>Нет модификации</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0046220017</t>
+          <t>0046230067</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-06-25T00:00:00Z</t>
+          <t>2024-11-16T00:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>С-ТТ/26-06-2023/257692658</t>
+          <t>С-В/17-11-2023/295542089</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>ФБУ "РОСТЕСТ-МОСКВА"</t>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
         </is>
       </c>
       <c r="K11" t="b">
@@ -1167,16 +1167,16 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1-257692658</t>
+          <t>1-295542089</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-06-26T00:00:00Z</t>
+          <t>2023-11-17T00:00:00Z</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.774961890517058e+18</v>
+        <v>1.78309085470602e+18</v>
       </c>
       <c r="O11" t="inlineStr"/>
     </row>
@@ -1188,22 +1188,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ДВС-01</t>
+          <t>Нет модификации</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0046220016</t>
+          <t>0046230066</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-06-25T00:00:00Z</t>
+          <t>2024-11-16T00:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>С-ТТ/26-06-2023/257692659</t>
+          <t>С-В/17-11-2023/295542090</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>ФБУ "РОСТЕСТ-МОСКВА"</t>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
         </is>
       </c>
       <c r="K12" t="b">
@@ -1234,16 +1234,16 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1-257692659</t>
+          <t>1-295542090</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023-06-26T00:00:00Z</t>
+          <t>2023-11-17T00:00:00Z</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.774961890517058e+18</v>
+        <v>1.783090854739575e+18</v>
       </c>
       <c r="O12" t="inlineStr"/>
     </row>
@@ -1255,22 +1255,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ДВС-01</t>
+          <t>Нет модификации</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0006200074</t>
+          <t>0046230065</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-06-25T00:00:00Z</t>
+          <t>2024-11-16T00:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>С-ТТ/26-06-2023/257692660</t>
+          <t>С-В/17-11-2023/295542071</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>ФБУ "РОСТЕСТ-МОСКВА"</t>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
         </is>
       </c>
       <c r="K13" t="b">
@@ -1301,16 +1301,16 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1-257692660</t>
+          <t>1-295542071</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2023-06-26T00:00:00Z</t>
+          <t>2023-11-17T00:00:00Z</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1.774961890517058e+18</v>
+        <v>1.783090855237648e+18</v>
       </c>
       <c r="O13" t="inlineStr"/>
     </row>
@@ -1322,22 +1322,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ДВС-01</t>
+          <t>Нет модификации</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0006190231</t>
+          <t>0046230063</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-06-25T00:00:00Z</t>
+          <t>2024-11-16T00:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>С-ТТ/26-06-2023/257692661</t>
+          <t>С-В/17-11-2023/295542073</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>ФБУ "РОСТЕСТ-МОСКВА"</t>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
         </is>
       </c>
       <c r="K14" t="b">
@@ -1368,16 +1368,16 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1-257692661</t>
+          <t>1-295542073</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2023-06-26T00:00:00Z</t>
+          <t>2023-11-17T00:00:00Z</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1.774961890518106e+18</v>
+        <v>1.783090855248134e+18</v>
       </c>
       <c r="O14" t="inlineStr"/>
     </row>
@@ -1394,17 +1394,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0046220198</t>
+          <t>0046230064</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-06-12T00:00:00Z</t>
+          <t>2024-11-16T00:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>С-В/13-06-2023/255077337</t>
+          <t>С-В/17-11-2023/295542072</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1435,16 +1435,16 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1-255077337</t>
+          <t>1-295542072</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023-06-13T00:00:00Z</t>
+          <t>2023-11-17T00:00:00Z</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>1.774961862699385e+18</v>
+        <v>1.78309085525128e+18</v>
       </c>
       <c r="O15" t="inlineStr"/>
     </row>
@@ -1461,17 +1461,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0046220197</t>
+          <t>0046230061</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-06-12T00:00:00Z</t>
+          <t>2024-11-16T00:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>С-В/13-06-2023/255077338</t>
+          <t>С-В/17-11-2023/295542075</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1502,16 +1502,16 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1-255077338</t>
+          <t>1-295542075</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2023-06-13T00:00:00Z</t>
+          <t>2023-11-17T00:00:00Z</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1.774961862699385e+18</v>
+        <v>1.783090855254426e+18</v>
       </c>
       <c r="O16" t="inlineStr"/>
     </row>
@@ -1528,17 +1528,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0046220200</t>
+          <t>0046230062</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-04-19T00:00:00Z</t>
+          <t>2024-11-16T00:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>С-В/20-04-2023/241097476</t>
+          <t>С-В/17-11-2023/295542074</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1569,16 +1569,16 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1-241097476</t>
+          <t>1-295542074</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2023-04-20T00:00:00Z</t>
+          <t>2023-11-17T00:00:00Z</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>1.774962449030578e+18</v>
+        <v>1.783090855257571e+18</v>
       </c>
       <c r="O17" t="inlineStr"/>
     </row>
@@ -1595,17 +1595,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0046220182</t>
+          <t>0046230059</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-04-19T00:00:00Z</t>
+          <t>2024-11-16T00:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>С-В/20-04-2023/241097479</t>
+          <t>С-В/17-11-2023/295542077</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1636,16 +1636,16 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1-241097479</t>
+          <t>1-295542077</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2023-04-20T00:00:00Z</t>
+          <t>2023-11-17T00:00:00Z</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>1.774962449030578e+18</v>
+        <v>1.783090855261766e+18</v>
       </c>
       <c r="O18" t="inlineStr"/>
     </row>
@@ -1662,17 +1662,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0046230001</t>
+          <t>0046230060</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-04-19T00:00:00Z</t>
+          <t>2024-11-16T00:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>С-В/20-04-2023/241097480</t>
+          <t>С-В/17-11-2023/295542076</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1703,16 +1703,16 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1-241097480</t>
+          <t>1-295542076</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2023-04-20T00:00:00Z</t>
+          <t>2023-11-17T00:00:00Z</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>1.774962449031627e+18</v>
+        <v>1.783090855264911e+18</v>
       </c>
       <c r="O19" t="inlineStr"/>
     </row>
@@ -1729,17 +1729,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0046230004</t>
+          <t>0046230057</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-04-19T00:00:00Z</t>
+          <t>2024-11-16T00:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>С-В/20-04-2023/241097481</t>
+          <t>С-В/17-11-2023/295542079</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1770,16 +1770,16 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>1-241097481</t>
+          <t>1-295542079</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2023-04-20T00:00:00Z</t>
+          <t>2023-11-17T00:00:00Z</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>1.774962449031627e+18</v>
+        <v>1.783090855271203e+18</v>
       </c>
       <c r="O20" t="inlineStr"/>
     </row>
@@ -1796,17 +1796,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0046220185</t>
+          <t>0046230058</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-04-19T00:00:00Z</t>
+          <t>2024-11-16T00:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>С-В/20-04-2023/241097482</t>
+          <t>С-В/17-11-2023/295542078</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1837,16 +1837,16 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1-241097482</t>
+          <t>1-295542078</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2023-04-20T00:00:00Z</t>
+          <t>2023-11-17T00:00:00Z</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>1.774962449031627e+18</v>
+        <v>1.783090855278543e+18</v>
       </c>
       <c r="O21" t="inlineStr"/>
     </row>
@@ -1863,17 +1863,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0046220186</t>
+          <t>0046230038</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-04-19T00:00:00Z</t>
+          <t>2024-11-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>С-В/20-04-2023/241097485</t>
+          <t>С-В/09-11-2023/293317415</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1904,16 +1904,16 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>1-241097485</t>
+          <t>1-293317415</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2023-04-20T00:00:00Z</t>
+          <t>2023-11-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>1.774962449031627e+18</v>
+        <v>1.782106567852687e+18</v>
       </c>
       <c r="O22" t="inlineStr"/>
     </row>
@@ -1930,17 +1930,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0046230002</t>
+          <t>0046230039</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-04-19T00:00:00Z</t>
+          <t>2024-11-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>С-В/20-04-2023/241097486</t>
+          <t>С-В/09-11-2023/293317414</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1971,16 +1971,16 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>1-241097486</t>
+          <t>1-293317414</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2023-04-20T00:00:00Z</t>
+          <t>2023-11-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>1.774962449031627e+18</v>
+        <v>1.78210656786527e+18</v>
       </c>
       <c r="O23" t="inlineStr"/>
     </row>
@@ -1997,17 +1997,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0046220180</t>
+          <t>0046230040</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-04-19T00:00:00Z</t>
+          <t>2024-11-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>С-В/20-04-2023/241097487</t>
+          <t>С-В/09-11-2023/293317413</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2038,16 +2038,16 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1-241097487</t>
+          <t>1-293317413</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2023-04-20T00:00:00Z</t>
+          <t>2023-11-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>1.774962449031627e+18</v>
+        <v>1.782106567876805e+18</v>
       </c>
       <c r="O24" t="inlineStr"/>
     </row>
@@ -2064,17 +2064,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0046220184</t>
+          <t>0046230041</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-04-19T00:00:00Z</t>
+          <t>2024-11-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>С-В/20-04-2023/241097489</t>
+          <t>С-В/09-11-2023/293317412</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2105,16 +2105,16 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1-241097489</t>
+          <t>1-293317412</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2023-04-20T00:00:00Z</t>
+          <t>2023-11-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>1.774962449031627e+18</v>
+        <v>1.782106567888339e+18</v>
       </c>
       <c r="O25" t="inlineStr"/>
     </row>
@@ -2131,17 +2131,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0046220181</t>
+          <t>0046230042</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-04-19T00:00:00Z</t>
+          <t>2024-11-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>С-В/20-04-2023/241097491</t>
+          <t>С-В/09-11-2023/293317411</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2172,16 +2172,16 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>1-241097491</t>
+          <t>1-293317411</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2023-04-20T00:00:00Z</t>
+          <t>2023-11-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>1.774962449031627e+18</v>
+        <v>1.782106567896728e+18</v>
       </c>
       <c r="O26" t="inlineStr"/>
     </row>
@@ -2198,17 +2198,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0046220093</t>
+          <t>0046230043</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-04-19T00:00:00Z</t>
+          <t>2024-11-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>С-В/20-04-2023/241097492</t>
+          <t>С-В/09-11-2023/293317410</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2239,16 +2239,16 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1-241097492</t>
+          <t>1-293317410</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2023-04-20T00:00:00Z</t>
+          <t>2023-11-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>1.774962449032675e+18</v>
+        <v>1.782106567904068e+18</v>
       </c>
       <c r="O27" t="inlineStr"/>
     </row>
@@ -2265,17 +2265,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0046210133</t>
+          <t>0046230044</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-04-19T00:00:00Z</t>
+          <t>2024-11-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>С-В/20-04-2023/241097493</t>
+          <t>С-В/09-11-2023/293317409</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2306,16 +2306,16 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1-241097493</t>
+          <t>1-293317409</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2023-04-20T00:00:00Z</t>
+          <t>2023-11-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>1.774962449032675e+18</v>
+        <v>1.782106568169357e+18</v>
       </c>
       <c r="O28" t="inlineStr"/>
     </row>
@@ -2332,17 +2332,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0046210129</t>
+          <t>0046230045</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-04-19T00:00:00Z</t>
+          <t>2024-11-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>С-В/20-04-2023/241097494</t>
+          <t>С-В/09-11-2023/293317408</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2373,16 +2373,16 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1-241097494</t>
+          <t>1-293317408</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2023-04-20T00:00:00Z</t>
+          <t>2023-11-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>1.774962449032675e+18</v>
+        <v>1.782106568176697e+18</v>
       </c>
       <c r="O29" t="inlineStr"/>
     </row>
@@ -2399,17 +2399,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0046210126</t>
+          <t>0046230046</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-04-19T00:00:00Z</t>
+          <t>2024-11-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>С-В/20-04-2023/241097495</t>
+          <t>С-В/09-11-2023/293317407</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2440,16 +2440,16 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>1-241097495</t>
+          <t>1-293317407</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2023-04-20T00:00:00Z</t>
+          <t>2023-11-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>1.774962449032675e+18</v>
+        <v>1.782106568185086e+18</v>
       </c>
       <c r="O30" t="inlineStr"/>
     </row>
@@ -2466,17 +2466,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0046210145</t>
+          <t>0046230047</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-04-19T00:00:00Z</t>
+          <t>2024-11-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>С-В/20-04-2023/241097496</t>
+          <t>С-В/09-11-2023/293317406</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2507,16 +2507,16 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>1-241097496</t>
+          <t>1-293317406</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2023-04-20T00:00:00Z</t>
+          <t>2023-11-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>1.774962449032675e+18</v>
+        <v>1.782106568193475e+18</v>
       </c>
       <c r="O31" t="inlineStr"/>
     </row>
@@ -2528,22 +2528,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Нет модификации</t>
+          <t>ДВС-01</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0046210134</t>
+          <t>0046220162</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-04-19T00:00:00Z</t>
+          <t>2024-08-13T00:00:00Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>С-В/20-04-2023/241097497</t>
+          <t>С-ТТ/14-08-2023/269923011</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ФБУ "РОСТЕСТ-МОСКВА"</t>
         </is>
       </c>
       <c r="K32" t="b">
@@ -2574,16 +2574,16 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1-241097497</t>
+          <t>1-269923011</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2023-04-20T00:00:00Z</t>
+          <t>2023-08-14T00:00:00Z</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>1.774962449032675e+18</v>
+        <v>1.774962224046014e+18</v>
       </c>
       <c r="O32" t="inlineStr"/>
     </row>
@@ -2595,22 +2595,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Нет модификации</t>
+          <t>ДВС-01</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0046220190</t>
+          <t>0046220163</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-04-19T00:00:00Z</t>
+          <t>2024-08-13T00:00:00Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>С-В/20-04-2023/241097499</t>
+          <t>С-ТТ/14-08-2023/269923012</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ФБУ "РОСТЕСТ-МОСКВА"</t>
         </is>
       </c>
       <c r="K33" t="b">
@@ -2641,16 +2641,16 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>1-241097499</t>
+          <t>1-269923012</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2023-04-20T00:00:00Z</t>
+          <t>2023-08-14T00:00:00Z</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>1.774962449032675e+18</v>
+        <v>1.774962224046014e+18</v>
       </c>
       <c r="O33" t="inlineStr"/>
     </row>
@@ -2662,22 +2662,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Нет модификации</t>
+          <t>ДВС-01</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0046220187</t>
+          <t>0046220166</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-04-19T00:00:00Z</t>
+          <t>2024-08-13T00:00:00Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>С-В/20-04-2023/241097500</t>
+          <t>С-ТТ/14-08-2023/269923015</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ФБУ "РОСТЕСТ-МОСКВА"</t>
         </is>
       </c>
       <c r="K34" t="b">
@@ -2708,16 +2708,16 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>1-241097500</t>
+          <t>1-269923015</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2023-04-20T00:00:00Z</t>
+          <t>2023-08-14T00:00:00Z</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>1.774962449032675e+18</v>
+        <v>1.774962224047063e+18</v>
       </c>
       <c r="O34" t="inlineStr"/>
     </row>
@@ -2729,22 +2729,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Нет модификации</t>
+          <t>ДВС-01</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0046220188</t>
+          <t>0046220171</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-04-19T00:00:00Z</t>
+          <t>2024-08-13T00:00:00Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>С-В/20-04-2023/241097501</t>
+          <t>С-ТТ/14-08-2023/269923016</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ФБУ "РОСТЕСТ-МОСКВА"</t>
         </is>
       </c>
       <c r="K35" t="b">
@@ -2775,16 +2775,16 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>1-241097501</t>
+          <t>1-269923016</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2023-04-20T00:00:00Z</t>
+          <t>2023-08-14T00:00:00Z</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>1.774962449033724e+18</v>
+        <v>1.774962224047063e+18</v>
       </c>
       <c r="O35" t="inlineStr"/>
     </row>
@@ -2796,22 +2796,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Нет модификации</t>
+          <t>ДВС-01</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0046220183</t>
+          <t>0046220164</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-04-19T00:00:00Z</t>
+          <t>2024-08-13T00:00:00Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>С-В/20-04-2023/241097502</t>
+          <t>С-ТТ/14-08-2023/269923017</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ФБУ "РОСТЕСТ-МОСКВА"</t>
         </is>
       </c>
       <c r="K36" t="b">
@@ -2842,16 +2842,16 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>1-241097502</t>
+          <t>1-269923017</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2023-04-20T00:00:00Z</t>
+          <t>2023-08-14T00:00:00Z</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>1.774962449033724e+18</v>
+        <v>1.774962224047063e+18</v>
       </c>
       <c r="O36" t="inlineStr"/>
     </row>
@@ -2863,22 +2863,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Нет модификации</t>
+          <t>ДВС-01</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0046220179</t>
+          <t>0046220170</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-04-19T00:00:00Z</t>
+          <t>2024-08-13T00:00:00Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>С-В/20-04-2023/241097504</t>
+          <t>С-ТТ/14-08-2023/269923018</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ФБУ "РОСТЕСТ-МОСКВА"</t>
         </is>
       </c>
       <c r="K37" t="b">
@@ -2909,16 +2909,16 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>1-241097504</t>
+          <t>1-269923018</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2023-04-20T00:00:00Z</t>
+          <t>2023-08-14T00:00:00Z</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>1.774962449033724e+18</v>
+        <v>1.774962224047063e+18</v>
       </c>
       <c r="O37" t="inlineStr"/>
     </row>
@@ -2930,22 +2930,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Нет модификации</t>
+          <t>ДВС-01</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0046220189</t>
+          <t>0046220169</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-04-19T00:00:00Z</t>
+          <t>2024-08-13T00:00:00Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>С-В/20-04-2023/241097506</t>
+          <t>С-ТТ/14-08-2023/269923019</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ФБУ "РОСТЕСТ-МОСКВА"</t>
         </is>
       </c>
       <c r="K38" t="b">
@@ -2976,16 +2976,16 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>1-241097506</t>
+          <t>1-269923019</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2023-04-20T00:00:00Z</t>
+          <t>2023-08-14T00:00:00Z</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>1.774962449033724e+18</v>
+        <v>1.774962224047063e+18</v>
       </c>
       <c r="O38" t="inlineStr"/>
     </row>
@@ -2997,22 +2997,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Нет модификации</t>
+          <t>ДВС-01</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0046230003</t>
+          <t>0046220165</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-04-19T00:00:00Z</t>
+          <t>2024-08-13T00:00:00Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>С-В/20-04-2023/241097508</t>
+          <t>С-ТТ/14-08-2023/269923020</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3035,7 +3035,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ФБУ "РОСТЕСТ-МОСКВА"</t>
         </is>
       </c>
       <c r="K39" t="b">
@@ -3043,16 +3043,16 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>1-241097508</t>
+          <t>1-269923020</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2023-04-20T00:00:00Z</t>
+          <t>2023-08-14T00:00:00Z</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>1.774962449034772e+18</v>
+        <v>1.774962224048112e+18</v>
       </c>
       <c r="O39" t="inlineStr"/>
     </row>
@@ -3064,22 +3064,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Нет модификации</t>
+          <t>ДВС-01</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0046220199</t>
+          <t>0046220172</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-04-19T00:00:00Z</t>
+          <t>2024-08-13T00:00:00Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>С-В/20-04-2023/241097509</t>
+          <t>С-ТТ/14-08-2023/269923021</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ФБУ "РОСТЕСТ-МОСКВА"</t>
         </is>
       </c>
       <c r="K40" t="b">
@@ -3110,16 +3110,16 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>1-241097509</t>
+          <t>1-269923021</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2023-04-20T00:00:00Z</t>
+          <t>2023-08-14T00:00:00Z</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>1.774962449034772e+18</v>
+        <v>1.774962224048112e+18</v>
       </c>
       <c r="O40" t="inlineStr"/>
     </row>
@@ -3131,22 +3131,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Нет модификации</t>
+          <t>ДВС-01</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0046220147</t>
+          <t>0046220017</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-03-22T00:00:00Z</t>
+          <t>2024-06-25T00:00:00Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>С-В/23-03-2023/234738783</t>
+          <t>С-ТТ/26-06-2023/257692658</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ФБУ "РОСТЕСТ-МОСКВА"</t>
         </is>
       </c>
       <c r="K41" t="b">
@@ -3177,16 +3177,16 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>1-234738783</t>
+          <t>1-257692658</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2023-03-23T00:00:00Z</t>
+          <t>2023-06-26T00:00:00Z</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>1.77496238289689e+18</v>
+        <v>1.774961890517058e+18</v>
       </c>
       <c r="O41" t="inlineStr"/>
     </row>
@@ -3198,22 +3198,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Нет модификации</t>
+          <t>ДВС-01</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0046220143</t>
+          <t>0046220016</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-03-22T00:00:00Z</t>
+          <t>2024-06-25T00:00:00Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>С-В/23-03-2023/234738784</t>
+          <t>С-ТТ/26-06-2023/257692659</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ФБУ "РОСТЕСТ-МОСКВА"</t>
         </is>
       </c>
       <c r="K42" t="b">
@@ -3244,16 +3244,16 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>1-234738784</t>
+          <t>1-257692659</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2023-03-23T00:00:00Z</t>
+          <t>2023-06-26T00:00:00Z</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>1.77496238289689e+18</v>
+        <v>1.774961890517058e+18</v>
       </c>
       <c r="O42" t="inlineStr"/>
     </row>
@@ -3265,22 +3265,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Нет модификации</t>
+          <t>ДВС-01</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0046220141</t>
+          <t>0006200074</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-03-22T00:00:00Z</t>
+          <t>2024-06-25T00:00:00Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>С-В/23-03-2023/234738785</t>
+          <t>С-ТТ/26-06-2023/257692660</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ФБУ "РОСТЕСТ-МОСКВА"</t>
         </is>
       </c>
       <c r="K43" t="b">
@@ -3311,16 +3311,16 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>1-234738785</t>
+          <t>1-257692660</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2023-03-23T00:00:00Z</t>
+          <t>2023-06-26T00:00:00Z</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>1.77496238289689e+18</v>
+        <v>1.774961890517058e+18</v>
       </c>
       <c r="O43" t="inlineStr"/>
     </row>
@@ -3332,22 +3332,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Нет модификации</t>
+          <t>ДВС-01</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0046200071</t>
+          <t>0006190231</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-03-22T00:00:00Z</t>
+          <t>2024-06-25T00:00:00Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>С-В/23-03-2023/234738786</t>
+          <t>С-ТТ/26-06-2023/257692661</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3370,7 +3370,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ФБУ "РОСТЕСТ-МОСКВА"</t>
         </is>
       </c>
       <c r="K44" t="b">
@@ -3378,16 +3378,16 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>1-234738786</t>
+          <t>1-257692661</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2023-03-23T00:00:00Z</t>
+          <t>2023-06-26T00:00:00Z</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>1.77496238289689e+18</v>
+        <v>1.774961890518106e+18</v>
       </c>
       <c r="O44" t="inlineStr"/>
     </row>
@@ -3404,17 +3404,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0046220144</t>
+          <t>0046220198</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-03-22T00:00:00Z</t>
+          <t>2024-06-12T00:00:00Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>С-В/23-03-2023/234738787</t>
+          <t>С-В/13-06-2023/255077337</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3445,16 +3445,16 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>1-234738787</t>
+          <t>1-255077337</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2023-03-23T00:00:00Z</t>
+          <t>2023-06-13T00:00:00Z</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>1.77496238289689e+18</v>
+        <v>1.774961862699385e+18</v>
       </c>
       <c r="O45" t="inlineStr"/>
     </row>
@@ -3471,17 +3471,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0046220139</t>
+          <t>0046220197</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-03-22T00:00:00Z</t>
+          <t>2024-06-12T00:00:00Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>С-В/23-03-2023/234738788</t>
+          <t>С-В/13-06-2023/255077338</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3512,16 +3512,16 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>1-234738788</t>
+          <t>1-255077338</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2023-03-23T00:00:00Z</t>
+          <t>2023-06-13T00:00:00Z</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>1.77496238289689e+18</v>
+        <v>1.774961862699385e+18</v>
       </c>
       <c r="O46" t="inlineStr"/>
     </row>
@@ -3538,17 +3538,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0046220151</t>
+          <t>0046220200</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-03-22T00:00:00Z</t>
+          <t>2024-04-19T00:00:00Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>С-В/23-03-2023/234738790</t>
+          <t>С-В/20-04-2023/241097476</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3579,16 +3579,16 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>1-234738790</t>
+          <t>1-241097476</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2023-03-23T00:00:00Z</t>
+          <t>2023-04-20T00:00:00Z</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>1.774962382897938e+18</v>
+        <v>1.774962449030578e+18</v>
       </c>
       <c r="O47" t="inlineStr"/>
     </row>
@@ -3605,17 +3605,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0046210207</t>
+          <t>0046220182</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-03-22T00:00:00Z</t>
+          <t>2024-04-19T00:00:00Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>С-В/23-03-2023/234738791</t>
+          <t>С-В/20-04-2023/241097479</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3646,16 +3646,16 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>1-234738791</t>
+          <t>1-241097479</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2023-03-23T00:00:00Z</t>
+          <t>2023-04-20T00:00:00Z</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>1.774962382897938e+18</v>
+        <v>1.774962449030578e+18</v>
       </c>
       <c r="O48" t="inlineStr"/>
     </row>
@@ -3672,17 +3672,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0046200129</t>
+          <t>0046230001</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-03-22T00:00:00Z</t>
+          <t>2024-04-19T00:00:00Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>С-В/23-03-2023/234738792</t>
+          <t>С-В/20-04-2023/241097480</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3713,16 +3713,16 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>1-234738792</t>
+          <t>1-241097480</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2023-03-23T00:00:00Z</t>
+          <t>2023-04-20T00:00:00Z</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>1.774962382897938e+18</v>
+        <v>1.774962449031627e+18</v>
       </c>
       <c r="O49" t="inlineStr"/>
     </row>
@@ -3739,17 +3739,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0046210010</t>
+          <t>0046230004</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-03-22T00:00:00Z</t>
+          <t>2024-04-19T00:00:00Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>С-В/23-03-2023/234738793</t>
+          <t>С-В/20-04-2023/241097481</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3780,16 +3780,16 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>1-234738793</t>
+          <t>1-241097481</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2023-03-23T00:00:00Z</t>
+          <t>2023-04-20T00:00:00Z</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>1.774962382897938e+18</v>
+        <v>1.774962449031627e+18</v>
       </c>
       <c r="O50" t="inlineStr"/>
     </row>
@@ -3806,17 +3806,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0046210125</t>
+          <t>0046220185</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-03-22T00:00:00Z</t>
+          <t>2024-04-19T00:00:00Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>С-В/23-03-2023/234738794</t>
+          <t>С-В/20-04-2023/241097482</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3847,16 +3847,16 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>1-234738794</t>
+          <t>1-241097482</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2023-03-23T00:00:00Z</t>
+          <t>2023-04-20T00:00:00Z</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>1.774962382897938e+18</v>
+        <v>1.774962449031627e+18</v>
       </c>
       <c r="O51" t="inlineStr"/>
     </row>
@@ -3873,17 +3873,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0046220122</t>
+          <t>0046220186</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-03-22T00:00:00Z</t>
+          <t>2024-04-19T00:00:00Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>С-В/23-03-2023/234738795</t>
+          <t>С-В/20-04-2023/241097485</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3914,16 +3914,16 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>1-234738795</t>
+          <t>1-241097485</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2023-03-23T00:00:00Z</t>
+          <t>2023-04-20T00:00:00Z</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>1.774962382897938e+18</v>
+        <v>1.774962449031627e+18</v>
       </c>
       <c r="O52" t="inlineStr"/>
     </row>
@@ -3940,17 +3940,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0046200114</t>
+          <t>0046230002</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-03-22T00:00:00Z</t>
+          <t>2024-04-19T00:00:00Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>С-В/23-03-2023/234738796</t>
+          <t>С-В/20-04-2023/241097486</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3981,16 +3981,16 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>1-234738796</t>
+          <t>1-241097486</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2023-03-23T00:00:00Z</t>
+          <t>2023-04-20T00:00:00Z</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>1.774962382897938e+18</v>
+        <v>1.774962449031627e+18</v>
       </c>
       <c r="O53" t="inlineStr"/>
     </row>
@@ -4007,17 +4007,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0046220150</t>
+          <t>0046220180</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-03-22T00:00:00Z</t>
+          <t>2024-04-19T00:00:00Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>С-В/23-03-2023/234738797</t>
+          <t>С-В/20-04-2023/241097487</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4048,16 +4048,16 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>1-234738797</t>
+          <t>1-241097487</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2023-03-23T00:00:00Z</t>
+          <t>2023-04-20T00:00:00Z</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>1.774962382898987e+18</v>
+        <v>1.774962449031627e+18</v>
       </c>
       <c r="O54" t="inlineStr"/>
     </row>
@@ -4074,17 +4074,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0046210115</t>
+          <t>0046220184</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-03-22T00:00:00Z</t>
+          <t>2024-04-19T00:00:00Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>С-В/23-03-2023/234738798</t>
+          <t>С-В/20-04-2023/241097489</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4115,16 +4115,16 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>1-234738798</t>
+          <t>1-241097489</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2023-03-23T00:00:00Z</t>
+          <t>2023-04-20T00:00:00Z</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>1.774962382898987e+18</v>
+        <v>1.774962449031627e+18</v>
       </c>
       <c r="O55" t="inlineStr"/>
     </row>
@@ -4141,17 +4141,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0046210017</t>
+          <t>0046220181</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-03-22T00:00:00Z</t>
+          <t>2024-04-19T00:00:00Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>С-В/23-03-2023/234738799</t>
+          <t>С-В/20-04-2023/241097491</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4182,16 +4182,16 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>1-234738799</t>
+          <t>1-241097491</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2023-03-23T00:00:00Z</t>
+          <t>2023-04-20T00:00:00Z</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>1.774962382901084e+18</v>
+        <v>1.774962449031627e+18</v>
       </c>
       <c r="O56" t="inlineStr"/>
     </row>
@@ -4208,17 +4208,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0046220131</t>
+          <t>0046220093</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-03-22T00:00:00Z</t>
+          <t>2024-04-19T00:00:00Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>С-В/23-03-2023/234738800</t>
+          <t>С-В/20-04-2023/241097492</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4249,16 +4249,16 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>1-234738800</t>
+          <t>1-241097492</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2023-03-23T00:00:00Z</t>
+          <t>2023-04-20T00:00:00Z</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>1.774962382901084e+18</v>
+        <v>1.774962449032675e+18</v>
       </c>
       <c r="O57" t="inlineStr"/>
     </row>
@@ -4275,17 +4275,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0046220132</t>
+          <t>0046210133</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-03-22T00:00:00Z</t>
+          <t>2024-04-19T00:00:00Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>С-В/23-03-2023/234738802</t>
+          <t>С-В/20-04-2023/241097493</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4316,16 +4316,16 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>1-234738802</t>
+          <t>1-241097493</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2023-03-23T00:00:00Z</t>
+          <t>2023-04-20T00:00:00Z</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>1.774962382901084e+18</v>
+        <v>1.774962449032675e+18</v>
       </c>
       <c r="O58" t="inlineStr"/>
     </row>
@@ -4342,17 +4342,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0046210140</t>
+          <t>0046210129</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2023-11-16T00:00:00Z</t>
+          <t>2024-04-19T00:00:00Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>С-В/17-11-2022/203227664</t>
+          <t>С-В/20-04-2023/241097494</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4383,16 +4383,16 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>1-203227664</t>
+          <t>1-241097494</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2022-11-17T00:00:00Z</t>
+          <t>2023-04-20T00:00:00Z</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>1.77496497807111e+18</v>
+        <v>1.774962449032675e+18</v>
       </c>
       <c r="O59" t="inlineStr"/>
     </row>
@@ -4409,17 +4409,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0046210139</t>
+          <t>0046210126</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023-09-14T00:00:00Z</t>
+          <t>2024-04-19T00:00:00Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>С-В/15-09-2022/188722180</t>
+          <t>С-В/20-04-2023/241097495</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4438,7 +4438,7 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4450,16 +4450,16 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>1-188722180</t>
+          <t>1-241097495</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2022-09-15T00:00:00Z</t>
+          <t>2023-04-20T00:00:00Z</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>1.774964781869957e+18</v>
+        <v>1.774962449032675e+18</v>
       </c>
       <c r="O60" t="inlineStr"/>
     </row>
@@ -4476,17 +4476,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0046210127</t>
+          <t>0046210145</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023-09-14T00:00:00Z</t>
+          <t>2024-04-19T00:00:00Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>С-В/15-09-2022/188722181</t>
+          <t>С-В/20-04-2023/241097496</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4505,7 +4505,7 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4517,16 +4517,16 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>1-188722181</t>
+          <t>1-241097496</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2022-09-15T00:00:00Z</t>
+          <t>2023-04-20T00:00:00Z</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>1.774964781869957e+18</v>
+        <v>1.774962449032675e+18</v>
       </c>
       <c r="O61" t="inlineStr"/>
     </row>
@@ -4543,17 +4543,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0046210141</t>
+          <t>0046210134</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2022-09-09T00:00:00Z</t>
+          <t>2024-04-19T00:00:00Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>С-В/10-09-2021/95479347</t>
+          <t>С-В/20-04-2023/241097497</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4584,22 +4584,18 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>1-95479347</t>
+          <t>1-241097497</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2021-09-10T00:00:00Z</t>
+          <t>2023-04-20T00:00:00Z</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>1.774964849145545e+18</v>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+        <v>1.774962449032675e+18</v>
+      </c>
+      <c r="O62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4614,17 +4610,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0046210137</t>
+          <t>0046220190</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2022-09-09T00:00:00Z</t>
+          <t>2024-04-19T00:00:00Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>С-В/10-09-2021/95479353</t>
+          <t>С-В/20-04-2023/241097499</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4643,7 +4639,7 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -4655,22 +4651,18 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>1-95479353</t>
+          <t>1-241097499</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2021-09-10T00:00:00Z</t>
+          <t>2023-04-20T00:00:00Z</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>1.774964849145545e+18</v>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+        <v>1.774962449032675e+18</v>
+      </c>
+      <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4685,17 +4677,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0046210135</t>
+          <t>0046220187</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2022-09-09T00:00:00Z</t>
+          <t>2024-04-19T00:00:00Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>С-В/10-09-2021/95479355</t>
+          <t>С-В/20-04-2023/241097500</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4714,7 +4706,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -4726,22 +4718,18 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>1-95479355</t>
+          <t>1-241097500</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2021-09-10T00:00:00Z</t>
+          <t>2023-04-20T00:00:00Z</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>1.774964849145545e+18</v>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+        <v>1.774962449032675e+18</v>
+      </c>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4756,17 +4744,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0046210130</t>
+          <t>0046220188</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2022-09-09T00:00:00Z</t>
+          <t>2024-04-19T00:00:00Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>С-В/10-09-2021/95479361</t>
+          <t>С-В/20-04-2023/241097501</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4785,7 +4773,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -4797,22 +4785,18 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>1-95479361</t>
+          <t>1-241097501</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2021-09-10T00:00:00Z</t>
+          <t>2023-04-20T00:00:00Z</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>1.774964849146593e+18</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+        <v>1.774962449033724e+18</v>
+      </c>
+      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4827,17 +4811,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0046210140</t>
+          <t>0046220183</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2022-09-09T00:00:00Z</t>
+          <t>2024-04-19T00:00:00Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>С-В/10-09-2021/95479363</t>
+          <t>С-В/20-04-2023/241097502</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4856,7 +4840,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -4868,22 +4852,18 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>1-95479363</t>
+          <t>1-241097502</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2021-09-10T00:00:00Z</t>
+          <t>2023-04-20T00:00:00Z</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>1.774964849146593e+18</v>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+        <v>1.774962449033724e+18</v>
+      </c>
+      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4898,17 +4878,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0046210132</t>
+          <t>0046220179</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2022-09-09T00:00:00Z</t>
+          <t>2024-04-19T00:00:00Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>С-В/10-09-2021/95479365</t>
+          <t>С-В/20-04-2023/241097504</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4927,7 +4907,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -4939,22 +4919,18 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>1-95479365</t>
+          <t>1-241097504</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2021-09-10T00:00:00Z</t>
+          <t>2023-04-20T00:00:00Z</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>1.774964849146593e+18</v>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+        <v>1.774962449033724e+18</v>
+      </c>
+      <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4969,17 +4945,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0046210138</t>
+          <t>0046220189</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2022-09-09T00:00:00Z</t>
+          <t>2024-04-19T00:00:00Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>С-В/10-09-2021/95479368</t>
+          <t>С-В/20-04-2023/241097506</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4998,7 +4974,7 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5010,22 +4986,18 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>1-95479368</t>
+          <t>1-241097506</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2021-09-10T00:00:00Z</t>
+          <t>2023-04-20T00:00:00Z</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>1.774964849146593e+18</v>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+        <v>1.774962449033724e+18</v>
+      </c>
+      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5040,17 +5012,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0046210139</t>
+          <t>0046230003</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2022-09-09T00:00:00Z</t>
+          <t>2024-04-19T00:00:00Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>С-В/10-09-2021/95479371</t>
+          <t>С-В/20-04-2023/241097508</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5069,7 +5041,7 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5081,22 +5053,18 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>1-95479371</t>
+          <t>1-241097508</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2021-09-10T00:00:00Z</t>
+          <t>2023-04-20T00:00:00Z</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>1.774964849146593e+18</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+        <v>1.774962449034772e+18</v>
+      </c>
+      <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5111,17 +5079,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0046210127</t>
+          <t>0046220199</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2022-09-09T00:00:00Z</t>
+          <t>2024-04-19T00:00:00Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>С-В/10-09-2021/95479373</t>
+          <t>С-В/20-04-2023/241097509</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5140,7 +5108,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5152,22 +5120,18 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>1-95479373</t>
+          <t>1-241097509</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2021-09-10T00:00:00Z</t>
+          <t>2023-04-20T00:00:00Z</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>1.774964849146593e+18</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+        <v>1.774962449034772e+18</v>
+      </c>
+      <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5182,17 +5146,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0046210131</t>
+          <t>0046220147</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2022-09-09T00:00:00Z</t>
+          <t>2024-03-22T00:00:00Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>С-В/10-09-2021/95479374</t>
+          <t>С-В/23-03-2023/234738783</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5211,7 +5175,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5223,22 +5187,18 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>1-95479374</t>
+          <t>1-234738783</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2021-09-10T00:00:00Z</t>
+          <t>2023-03-23T00:00:00Z</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>1.774964849146593e+18</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+        <v>1.77496238289689e+18</v>
+      </c>
+      <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5253,17 +5213,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0046210136</t>
+          <t>0046220143</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2022-09-06T00:00:00Z</t>
+          <t>2024-03-22T00:00:00Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>С-В/07-09-2021/95479386</t>
+          <t>С-В/23-03-2023/234738784</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5282,7 +5242,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5294,22 +5254,18 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>1-95479386</t>
+          <t>1-234738784</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2021-09-07T00:00:00Z</t>
+          <t>2023-03-23T00:00:00Z</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>1.774964849146593e+18</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+        <v>1.77496238289689e+18</v>
+      </c>
+      <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5324,17 +5280,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0046210128</t>
+          <t>0046220141</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2022-09-06T00:00:00Z</t>
+          <t>2024-03-22T00:00:00Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>С-В/07-09-2021/95479388</t>
+          <t>С-В/23-03-2023/234738785</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5353,7 +5309,7 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5365,22 +5321,18 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>1-95479388</t>
+          <t>1-234738785</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2021-09-07T00:00:00Z</t>
+          <t>2023-03-23T00:00:00Z</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>1.774964849146593e+18</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+        <v>1.77496238289689e+18</v>
+      </c>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5395,17 +5347,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0046210144</t>
+          <t>0046200071</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2022-09-06T00:00:00Z</t>
+          <t>2024-03-22T00:00:00Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>С-В/07-09-2021/95479390</t>
+          <t>С-В/23-03-2023/234738786</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5424,7 +5376,7 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5436,22 +5388,18 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>1-95479390</t>
+          <t>1-234738786</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2021-09-07T00:00:00Z</t>
+          <t>2023-03-23T00:00:00Z</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>1.774964849146593e+18</v>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+        <v>1.77496238289689e+18</v>
+      </c>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5466,17 +5414,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0046210143</t>
+          <t>0046220144</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2022-09-06T00:00:00Z</t>
+          <t>2024-03-22T00:00:00Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>С-В/07-09-2021/95479392</t>
+          <t>С-В/23-03-2023/234738787</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5495,7 +5443,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5507,22 +5455,18 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>1-95479392</t>
+          <t>1-234738787</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2021-09-07T00:00:00Z</t>
+          <t>2023-03-23T00:00:00Z</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>1.774964849146593e+18</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
-        </is>
-      </c>
+        <v>1.77496238289689e+18</v>
+      </c>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5537,59 +5481,2125 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>0046220139</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2024-03-22T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>С-В/23-03-2023/234738788</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>1-234738788</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>2023-03-23T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>1.77496238289689e+18</v>
+      </c>
+      <c r="O76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0046220151</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2024-03-22T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>С-В/23-03-2023/234738790</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>1-234738790</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>2023-03-23T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>1.774962382897938e+18</v>
+      </c>
+      <c r="O77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0046210207</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2024-03-22T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>С-В/23-03-2023/234738791</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>1-234738791</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>2023-03-23T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>1.774962382897938e+18</v>
+      </c>
+      <c r="O78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0046200129</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2024-03-22T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>С-В/23-03-2023/234738792</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>1-234738792</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>2023-03-23T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>1.774962382897938e+18</v>
+      </c>
+      <c r="O79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0046210010</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2024-03-22T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>С-В/23-03-2023/234738793</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>1-234738793</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>2023-03-23T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>1.774962382897938e+18</v>
+      </c>
+      <c r="O80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0046210125</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2024-03-22T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>С-В/23-03-2023/234738794</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>1-234738794</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>2023-03-23T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>1.774962382897938e+18</v>
+      </c>
+      <c r="O81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0046220122</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2024-03-22T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>С-В/23-03-2023/234738795</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K82" t="b">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>1-234738795</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>2023-03-23T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>1.774962382897938e+18</v>
+      </c>
+      <c r="O82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0046200114</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2024-03-22T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>С-В/23-03-2023/234738796</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>1-234738796</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>2023-03-23T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>1.774962382897938e+18</v>
+      </c>
+      <c r="O83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0046220150</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2024-03-22T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>С-В/23-03-2023/234738797</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>1-234738797</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>2023-03-23T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>1.774962382898987e+18</v>
+      </c>
+      <c r="O84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0046210115</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2024-03-22T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>С-В/23-03-2023/234738798</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K85" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>1-234738798</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>2023-03-23T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>1.774962382898987e+18</v>
+      </c>
+      <c r="O85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0046210017</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2024-03-22T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>С-В/23-03-2023/234738799</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>1-234738799</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>2023-03-23T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>1.774962382901084e+18</v>
+      </c>
+      <c r="O86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0046220131</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2024-03-22T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>С-В/23-03-2023/234738800</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K87" t="b">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>1-234738800</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>2023-03-23T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>1.774962382901084e+18</v>
+      </c>
+      <c r="O87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0046220132</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2024-03-22T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>С-В/23-03-2023/234738802</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>1-234738802</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>2023-03-23T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>1.774962382901084e+18</v>
+      </c>
+      <c r="O88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0046210140</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-11-16T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>С-В/17-11-2022/203227664</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>1-203227664</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>2022-11-17T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>1.77496497807111e+18</v>
+      </c>
+      <c r="O89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0046210139</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-09-14T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>С-В/15-09-2022/188722180</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>1-188722180</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>2022-09-15T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>1.774964781869957e+18</v>
+      </c>
+      <c r="O90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0046210127</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-09-14T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>С-В/15-09-2022/188722181</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>2022</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K91" t="b">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>1-188722181</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>2022-09-15T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>1.774964781869957e+18</v>
+      </c>
+      <c r="O91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0046210141</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2022-09-09T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>С-В/10-09-2021/95479347</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K92" t="b">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>1-95479347</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>2021-09-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>1.774964849145545e+18</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0046210137</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2022-09-09T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>С-В/10-09-2021/95479353</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K93" t="b">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1-95479353</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>2021-09-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>1.774964849145545e+18</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0046210135</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2022-09-09T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>С-В/10-09-2021/95479355</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>1-95479355</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>2021-09-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>1.774964849145545e+18</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0046210130</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2022-09-09T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>С-В/10-09-2021/95479361</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>1-95479361</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>2021-09-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>1.774964849146593e+18</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0046210140</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2022-09-09T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>С-В/10-09-2021/95479363</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>1-95479363</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>2021-09-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>1.774964849146593e+18</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0046210132</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2022-09-09T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>С-В/10-09-2021/95479365</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K97" t="b">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>1-95479365</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>2021-09-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>1.774964849146593e+18</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0046210138</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2022-09-09T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>С-В/10-09-2021/95479368</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K98" t="b">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>1-95479368</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>2021-09-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>1.774964849146593e+18</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>0046210139</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2022-09-09T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>С-В/10-09-2021/95479371</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>1-95479371</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>2021-09-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>1.774964849146593e+18</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>0046210127</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2022-09-09T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>С-В/10-09-2021/95479373</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K100" t="b">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>1-95479373</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>2021-09-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>1.774964849146593e+18</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0046210131</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2022-09-09T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>С-В/10-09-2021/95479374</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K101" t="b">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>1-95479374</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>2021-09-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>1.774964849146593e+18</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>0046210136</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2022-09-06T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>С-В/07-09-2021/95479386</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K102" t="b">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>1-95479386</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>2021-09-07T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>1.774882888333918e+18</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0046210128</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2022-09-06T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>С-В/07-09-2021/95479388</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K103" t="b">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>1-95479388</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>2021-09-07T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>1.774882888333918e+18</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0046210144</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2022-09-06T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>С-В/07-09-2021/95479390</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K104" t="b">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>1-95479390</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>2021-09-07T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>1.774882888333918e+18</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>0046210143</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2022-09-06T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>С-В/07-09-2021/95479392</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>2021</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>1-95479392</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>2021-09-07T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>1.774882888334967e+18</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>77386-20</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
           <t>0046210142</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>2022-09-06T00:00:00Z</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>С-В/07-09-2021/95479394</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Пригодно</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>ДВС-01</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Датчики скорости ветра</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>ДВС-01</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Датчики скорости ветра</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
         <v>2021</v>
       </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
-        </is>
-      </c>
-      <c r="K76" t="b">
-        <v>1</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>1-95479394</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
+      <c r="M106" t="inlineStr">
         <is>
           <t>2021-09-07T00:00:00Z</t>
         </is>
       </c>
-      <c r="N76" t="n">
-        <v>1.774964849146593e+18</v>
-      </c>
-      <c r="O76" t="inlineStr">
+      <c r="N106" t="n">
+        <v>1.774882888334967e+18</v>
+      </c>
+      <c r="O106" t="inlineStr">
         <is>
           <t>Нет данных</t>
         </is>
